--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Trf-Tfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Trf-Tfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9629840000000001</v>
+        <v>1.977922333333334</v>
       </c>
       <c r="H2">
-        <v>2.888952</v>
+        <v>5.933767</v>
       </c>
       <c r="I2">
-        <v>0.01399805369068136</v>
+        <v>0.01156576927021167</v>
       </c>
       <c r="J2">
-        <v>0.01399805369068137</v>
+        <v>0.01156576927021167</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,22 +564,22 @@
         <v>4.221928999999999</v>
       </c>
       <c r="O2">
-        <v>0.7403583450766218</v>
+        <v>0.7536752551149739</v>
       </c>
       <c r="P2">
-        <v>0.7403583450766218</v>
+        <v>0.7536752551149739</v>
       </c>
       <c r="Q2">
-        <v>1.355216692045333</v>
+        <v>2.783549219615889</v>
       </c>
       <c r="R2">
-        <v>12.196950228408</v>
+        <v>25.051942976543</v>
       </c>
       <c r="S2">
-        <v>0.01036357586472655</v>
+        <v>0.008716834105327706</v>
       </c>
       <c r="T2">
-        <v>0.01036357586472655</v>
+        <v>0.008716834105327705</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9629840000000001</v>
+        <v>1.977922333333334</v>
       </c>
       <c r="H3">
-        <v>2.888952</v>
+        <v>5.933767</v>
       </c>
       <c r="I3">
-        <v>0.01399805369068136</v>
+        <v>0.01156576927021167</v>
       </c>
       <c r="J3">
-        <v>0.01399805369068137</v>
+        <v>0.01156576927021167</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.190555</v>
+        <v>0.1019666666666667</v>
       </c>
       <c r="N3">
-        <v>0.571665</v>
+        <v>0.3059</v>
       </c>
       <c r="O3">
-        <v>0.1002472929644783</v>
+        <v>0.05460756458473616</v>
       </c>
       <c r="P3">
-        <v>0.1002472929644783</v>
+        <v>0.05460756458473616</v>
       </c>
       <c r="Q3">
-        <v>0.18350141612</v>
+        <v>0.2016821472555556</v>
       </c>
       <c r="R3">
-        <v>1.65151274508</v>
+        <v>1.8151393253</v>
       </c>
       <c r="S3">
-        <v>0.001403266989262232</v>
+        <v>0.0006315784923952406</v>
       </c>
       <c r="T3">
-        <v>0.001403266989262232</v>
+        <v>0.0006315784923952405</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9629840000000001</v>
+        <v>1.977922333333334</v>
       </c>
       <c r="H4">
-        <v>2.888952</v>
+        <v>5.933767</v>
       </c>
       <c r="I4">
-        <v>0.01399805369068136</v>
+        <v>0.01156576927021167</v>
       </c>
       <c r="J4">
-        <v>0.01399805369068137</v>
+        <v>0.01156576927021167</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3029846666666667</v>
+        <v>0.3265433333333334</v>
       </c>
       <c r="N4">
-        <v>0.908954</v>
+        <v>0.97963</v>
       </c>
       <c r="O4">
-        <v>0.1593943619588998</v>
+        <v>0.1748780924947535</v>
       </c>
       <c r="P4">
-        <v>0.1593943619588998</v>
+        <v>0.1748780924947535</v>
       </c>
       <c r="Q4">
-        <v>0.2917693862453334</v>
+        <v>0.6458773518011113</v>
       </c>
       <c r="R4">
-        <v>2.625924476208</v>
+        <v>5.812896166210001</v>
       </c>
       <c r="S4">
-        <v>0.002231210836692579</v>
+        <v>0.002022599668209054</v>
       </c>
       <c r="T4">
-        <v>0.002231210836692578</v>
+        <v>0.002022599668209054</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.16077566666667</v>
+        <v>1.977922333333334</v>
       </c>
       <c r="H5">
-        <v>42.482327</v>
+        <v>5.933767</v>
       </c>
       <c r="I5">
-        <v>0.2058427742139996</v>
+        <v>0.01156576927021167</v>
       </c>
       <c r="J5">
-        <v>0.2058427742139996</v>
+        <v>0.01156576927021167</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.407309666666666</v>
+        <v>0.031443</v>
       </c>
       <c r="N5">
-        <v>4.221928999999999</v>
+        <v>0.094329</v>
       </c>
       <c r="O5">
-        <v>0.7403583450766218</v>
+        <v>0.01683908780553638</v>
       </c>
       <c r="P5">
-        <v>0.7403583450766218</v>
+        <v>0.01683908780553637</v>
       </c>
       <c r="Q5">
-        <v>19.92859648319811</v>
+        <v>0.062191811927</v>
       </c>
       <c r="R5">
-        <v>179.357368348783</v>
+        <v>0.559726307343</v>
       </c>
       <c r="S5">
-        <v>0.1523974156630575</v>
+        <v>0.0001947570042796687</v>
       </c>
       <c r="T5">
-        <v>0.1523974156630575</v>
+        <v>0.0001947570042796686</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>42.482327</v>
       </c>
       <c r="I6">
-        <v>0.2058427742139996</v>
+        <v>0.08280419371769795</v>
       </c>
       <c r="J6">
-        <v>0.2058427742139996</v>
+        <v>0.08280419371769795</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.190555</v>
+        <v>1.407309666666666</v>
       </c>
       <c r="N6">
-        <v>0.571665</v>
+        <v>4.221928999999999</v>
       </c>
       <c r="O6">
-        <v>0.1002472929644783</v>
+        <v>0.7536752551149739</v>
       </c>
       <c r="P6">
-        <v>0.1002472929644783</v>
+        <v>0.7536752551149739</v>
       </c>
       <c r="Q6">
-        <v>2.698406607161667</v>
+        <v>19.92859648319811</v>
       </c>
       <c r="R6">
-        <v>24.285659464455</v>
+        <v>179.357368348783</v>
       </c>
       <c r="S6">
-        <v>0.02063518089125178</v>
+        <v>0.06240747182477573</v>
       </c>
       <c r="T6">
-        <v>0.02063518089125178</v>
+        <v>0.06240747182477573</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>42.482327</v>
       </c>
       <c r="I7">
-        <v>0.2058427742139996</v>
+        <v>0.08280419371769795</v>
       </c>
       <c r="J7">
-        <v>0.2058427742139996</v>
+        <v>0.08280419371769795</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3029846666666667</v>
+        <v>0.1019666666666667</v>
       </c>
       <c r="N7">
-        <v>0.908954</v>
+        <v>0.3059</v>
       </c>
       <c r="O7">
-        <v>0.1593943619588998</v>
+        <v>0.05460756458473616</v>
       </c>
       <c r="P7">
-        <v>0.1593943619588998</v>
+        <v>0.05460756458473616</v>
       </c>
       <c r="Q7">
-        <v>4.290497895106444</v>
+        <v>1.443927092144444</v>
       </c>
       <c r="R7">
-        <v>38.614481055958</v>
+        <v>12.9953438293</v>
       </c>
       <c r="S7">
-        <v>0.03281017765969033</v>
+        <v>0.004521735356326195</v>
       </c>
       <c r="T7">
-        <v>0.03281017765969033</v>
+        <v>0.004521735356326195</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.538395</v>
+        <v>14.16077566666667</v>
       </c>
       <c r="H8">
-        <v>52.615185</v>
+        <v>42.482327</v>
       </c>
       <c r="I8">
-        <v>0.2549402636579398</v>
+        <v>0.08280419371769795</v>
       </c>
       <c r="J8">
-        <v>0.2549402636579399</v>
+        <v>0.08280419371769795</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.407309666666666</v>
+        <v>0.3265433333333334</v>
       </c>
       <c r="N8">
-        <v>4.221928999999999</v>
+        <v>0.97963</v>
       </c>
       <c r="O8">
-        <v>0.7403583450766218</v>
+        <v>0.1748780924947535</v>
       </c>
       <c r="P8">
-        <v>0.7403583450766218</v>
+        <v>0.1748780924947535</v>
       </c>
       <c r="Q8">
-        <v>24.68195282131833</v>
+        <v>4.624106888778889</v>
       </c>
       <c r="R8">
-        <v>222.1375753918649</v>
+        <v>41.61696199900999</v>
       </c>
       <c r="S8">
-        <v>0.1887471516951899</v>
+        <v>0.01448063944791707</v>
       </c>
       <c r="T8">
-        <v>0.18874715169519</v>
+        <v>0.01448063944791707</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.538395</v>
+        <v>14.16077566666667</v>
       </c>
       <c r="H9">
-        <v>52.615185</v>
+        <v>42.482327</v>
       </c>
       <c r="I9">
-        <v>0.2549402636579398</v>
+        <v>0.08280419371769795</v>
       </c>
       <c r="J9">
-        <v>0.2549402636579399</v>
+        <v>0.08280419371769795</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.190555</v>
+        <v>0.031443</v>
       </c>
       <c r="N9">
-        <v>0.571665</v>
+        <v>0.094329</v>
       </c>
       <c r="O9">
-        <v>0.1002472929644783</v>
+        <v>0.01683908780553638</v>
       </c>
       <c r="P9">
-        <v>0.1002472929644783</v>
+        <v>0.01683908780553637</v>
       </c>
       <c r="Q9">
-        <v>3.342028859225</v>
+        <v>0.4452572692869999</v>
       </c>
       <c r="R9">
-        <v>30.078259733025</v>
+        <v>4.007315423583</v>
       </c>
       <c r="S9">
-        <v>0.02555707129935884</v>
+        <v>0.001394347088678959</v>
       </c>
       <c r="T9">
-        <v>0.02555707129935885</v>
+        <v>0.001394347088678959</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.538395</v>
+        <v>80.27561433333334</v>
       </c>
       <c r="H10">
-        <v>52.615185</v>
+        <v>240.826843</v>
       </c>
       <c r="I10">
-        <v>0.2549402636579398</v>
+        <v>0.4694063147763454</v>
       </c>
       <c r="J10">
-        <v>0.2549402636579399</v>
+        <v>0.4694063147763453</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3029846666666667</v>
+        <v>1.407309666666666</v>
       </c>
       <c r="N10">
-        <v>0.908954</v>
+        <v>4.221928999999999</v>
       </c>
       <c r="O10">
-        <v>0.1593943619588998</v>
+        <v>0.7536752551149739</v>
       </c>
       <c r="P10">
-        <v>0.1593943619588998</v>
+        <v>0.7536752551149739</v>
       </c>
       <c r="Q10">
-        <v>5.313864762943333</v>
+        <v>112.9726480489052</v>
       </c>
       <c r="R10">
-        <v>47.82478286649</v>
+        <v>1016.753832440147</v>
       </c>
       <c r="S10">
-        <v>0.04063604066339101</v>
+        <v>0.3537799240416418</v>
       </c>
       <c r="T10">
-        <v>0.04063604066339101</v>
+        <v>0.3537799240416418</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,61 +1098,61 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.344791</v>
+        <v>80.27561433333334</v>
       </c>
       <c r="H11">
-        <v>1.034373</v>
+        <v>240.826843</v>
       </c>
       <c r="I11">
-        <v>0.00501192432071947</v>
+        <v>0.4694063147763454</v>
       </c>
       <c r="J11">
-        <v>0.00501192432071947</v>
+        <v>0.4694063147763453</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.407309666666666</v>
+        <v>0.1019666666666667</v>
       </c>
       <c r="N11">
-        <v>4.221928999999999</v>
+        <v>0.3059</v>
       </c>
       <c r="O11">
-        <v>0.7403583450766218</v>
+        <v>0.05460756458473616</v>
       </c>
       <c r="P11">
-        <v>0.7403583450766218</v>
+        <v>0.05460756458473616</v>
       </c>
       <c r="Q11">
-        <v>0.4852277072796666</v>
+        <v>8.185436808188889</v>
       </c>
       <c r="R11">
-        <v>4.367049365517</v>
+        <v>73.6689312737</v>
       </c>
       <c r="S11">
-        <v>0.003710619995737139</v>
+        <v>0.02563313565063227</v>
       </c>
       <c r="T11">
-        <v>0.003710619995737139</v>
+        <v>0.02563313565063226</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.344791</v>
+        <v>80.27561433333334</v>
       </c>
       <c r="H12">
-        <v>1.034373</v>
+        <v>240.826843</v>
       </c>
       <c r="I12">
-        <v>0.00501192432071947</v>
+        <v>0.4694063147763454</v>
       </c>
       <c r="J12">
-        <v>0.00501192432071947</v>
+        <v>0.4694063147763453</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.190555</v>
+        <v>0.3265433333333334</v>
       </c>
       <c r="N12">
-        <v>0.571665</v>
+        <v>0.97963</v>
       </c>
       <c r="O12">
-        <v>0.1002472929644783</v>
+        <v>0.1748780924947535</v>
       </c>
       <c r="P12">
-        <v>0.1002472929644783</v>
+        <v>0.1748780924947535</v>
       </c>
       <c r="Q12">
-        <v>0.065701649005</v>
+        <v>26.21346668978778</v>
       </c>
       <c r="R12">
-        <v>0.591314841045</v>
+        <v>235.92120020809</v>
       </c>
       <c r="S12">
-        <v>0.0005024318456949588</v>
+        <v>0.08208888093307909</v>
       </c>
       <c r="T12">
-        <v>0.0005024318456949587</v>
+        <v>0.08208888093307908</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.344791</v>
+        <v>80.27561433333334</v>
       </c>
       <c r="H13">
-        <v>1.034373</v>
+        <v>240.826843</v>
       </c>
       <c r="I13">
-        <v>0.00501192432071947</v>
+        <v>0.4694063147763454</v>
       </c>
       <c r="J13">
-        <v>0.00501192432071947</v>
+        <v>0.4694063147763453</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.3029846666666667</v>
+        <v>0.031443</v>
       </c>
       <c r="N13">
-        <v>0.908954</v>
+        <v>0.094329</v>
       </c>
       <c r="O13">
-        <v>0.1593943619588998</v>
+        <v>0.01683908780553638</v>
       </c>
       <c r="P13">
-        <v>0.1593943619588998</v>
+        <v>0.01683908780553637</v>
       </c>
       <c r="Q13">
-        <v>0.1044663862046667</v>
+        <v>2.524106141483</v>
       </c>
       <c r="R13">
-        <v>0.940197475842</v>
+        <v>22.716955273347</v>
       </c>
       <c r="S13">
-        <v>0.0007988724792873722</v>
+        <v>0.007904374150992127</v>
       </c>
       <c r="T13">
-        <v>0.0007988724792873721</v>
+        <v>0.007904374150992124</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.78718966666667</v>
+        <v>0.3725693333333333</v>
       </c>
       <c r="H14">
-        <v>107.361569</v>
+        <v>1.117708</v>
       </c>
       <c r="I14">
-        <v>0.5202069841166596</v>
+        <v>0.002178574392872141</v>
       </c>
       <c r="J14">
-        <v>0.5202069841166597</v>
+        <v>0.002178574392872141</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1308,27 +1308,27 @@
         <v>4.221928999999999</v>
       </c>
       <c r="O14">
-        <v>0.7403583450766218</v>
+        <v>0.7536752551149739</v>
       </c>
       <c r="P14">
-        <v>0.7403583450766218</v>
+        <v>0.7536752551149739</v>
       </c>
       <c r="Q14">
-        <v>50.36365796073344</v>
+        <v>0.5243204243035554</v>
       </c>
       <c r="R14">
-        <v>453.2729216466009</v>
+        <v>4.718883818731999</v>
       </c>
       <c r="S14">
-        <v>0.3851395818579105</v>
+        <v>0.00164193761133486</v>
       </c>
       <c r="T14">
-        <v>0.3851395818579106</v>
+        <v>0.00164193761133486</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,51 +1346,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.78718966666667</v>
+        <v>0.3725693333333333</v>
       </c>
       <c r="H15">
-        <v>107.361569</v>
+        <v>1.117708</v>
       </c>
       <c r="I15">
-        <v>0.5202069841166596</v>
+        <v>0.002178574392872141</v>
       </c>
       <c r="J15">
-        <v>0.5202069841166597</v>
+        <v>0.002178574392872141</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.190555</v>
+        <v>0.1019666666666667</v>
       </c>
       <c r="N15">
-        <v>0.571665</v>
+        <v>0.3059</v>
       </c>
       <c r="O15">
-        <v>0.1002472929644783</v>
+        <v>0.05460756458473616</v>
       </c>
       <c r="P15">
-        <v>0.1002472929644783</v>
+        <v>0.05460756458473616</v>
       </c>
       <c r="Q15">
-        <v>6.819427926931668</v>
+        <v>0.03798965302222222</v>
       </c>
       <c r="R15">
-        <v>61.374851342385</v>
+        <v>0.3419068772</v>
       </c>
       <c r="S15">
-        <v>0.05214934193891051</v>
+        <v>0.0001189666418614178</v>
       </c>
       <c r="T15">
-        <v>0.05214934193891051</v>
+        <v>0.0001189666418614178</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1408,46 +1408,356 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.78718966666667</v>
+        <v>0.3725693333333333</v>
       </c>
       <c r="H16">
-        <v>107.361569</v>
+        <v>1.117708</v>
       </c>
       <c r="I16">
-        <v>0.5202069841166596</v>
+        <v>0.002178574392872141</v>
       </c>
       <c r="J16">
-        <v>0.5202069841166597</v>
+        <v>0.002178574392872141</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3029846666666667</v>
+        <v>0.3265433333333334</v>
       </c>
       <c r="N16">
-        <v>0.908954</v>
+        <v>0.97963</v>
       </c>
       <c r="O16">
-        <v>0.1593943619588998</v>
+        <v>0.1748780924947535</v>
       </c>
       <c r="P16">
-        <v>0.1593943619588998</v>
+        <v>0.1748780924947535</v>
       </c>
       <c r="Q16">
-        <v>10.84296973209178</v>
+        <v>0.1216600320044444</v>
       </c>
       <c r="R16">
-        <v>97.58672758882601</v>
+        <v>1.09494028804</v>
       </c>
       <c r="S16">
-        <v>0.08291806031983848</v>
+        <v>0.0003809849341833956</v>
       </c>
       <c r="T16">
-        <v>0.08291806031983848</v>
+        <v>0.0003809849341833956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3725693333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.117708</v>
+      </c>
+      <c r="I17">
+        <v>0.002178574392872141</v>
+      </c>
+      <c r="J17">
+        <v>0.002178574392872141</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.031443</v>
+      </c>
+      <c r="N17">
+        <v>0.094329</v>
+      </c>
+      <c r="O17">
+        <v>0.01683908780553638</v>
+      </c>
+      <c r="P17">
+        <v>0.01683908780553637</v>
+      </c>
+      <c r="Q17">
+        <v>0.011714697548</v>
+      </c>
+      <c r="R17">
+        <v>0.105432277932</v>
+      </c>
+      <c r="S17">
+        <v>3.668520549246708E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.668520549246707E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>74.22831733333334</v>
+      </c>
+      <c r="H18">
+        <v>222.684952</v>
+      </c>
+      <c r="I18">
+        <v>0.434045147842873</v>
+      </c>
+      <c r="J18">
+        <v>0.4340451478428729</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.407309666666666</v>
+      </c>
+      <c r="N18">
+        <v>4.221928999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.7536752551149739</v>
+      </c>
+      <c r="P18">
+        <v>0.7536752551149739</v>
+      </c>
+      <c r="Q18">
+        <v>104.4622285236009</v>
+      </c>
+      <c r="R18">
+        <v>940.1600567124079</v>
+      </c>
+      <c r="S18">
+        <v>0.3271290875318938</v>
+      </c>
+      <c r="T18">
+        <v>0.3271290875318938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>74.22831733333334</v>
+      </c>
+      <c r="H19">
+        <v>222.684952</v>
+      </c>
+      <c r="I19">
+        <v>0.434045147842873</v>
+      </c>
+      <c r="J19">
+        <v>0.4340451478428729</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1019666666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.3059</v>
+      </c>
+      <c r="O19">
+        <v>0.05460756458473616</v>
+      </c>
+      <c r="P19">
+        <v>0.05460756458473616</v>
+      </c>
+      <c r="Q19">
+        <v>7.568814090755556</v>
+      </c>
+      <c r="R19">
+        <v>68.1193268168</v>
+      </c>
+      <c r="S19">
+        <v>0.02370214844352104</v>
+      </c>
+      <c r="T19">
+        <v>0.02370214844352104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>74.22831733333334</v>
+      </c>
+      <c r="H20">
+        <v>222.684952</v>
+      </c>
+      <c r="I20">
+        <v>0.434045147842873</v>
+      </c>
+      <c r="J20">
+        <v>0.4340451478428729</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3265433333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.97963</v>
+      </c>
+      <c r="O20">
+        <v>0.1748780924947535</v>
+      </c>
+      <c r="P20">
+        <v>0.1748780924947535</v>
+      </c>
+      <c r="Q20">
+        <v>24.23876216975111</v>
+      </c>
+      <c r="R20">
+        <v>218.14885952776</v>
+      </c>
+      <c r="S20">
+        <v>0.07590498751136489</v>
+      </c>
+      <c r="T20">
+        <v>0.07590498751136487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>74.22831733333334</v>
+      </c>
+      <c r="H21">
+        <v>222.684952</v>
+      </c>
+      <c r="I21">
+        <v>0.434045147842873</v>
+      </c>
+      <c r="J21">
+        <v>0.4340451478428729</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.031443</v>
+      </c>
+      <c r="N21">
+        <v>0.094329</v>
+      </c>
+      <c r="O21">
+        <v>0.01683908780553638</v>
+      </c>
+      <c r="P21">
+        <v>0.01683908780553637</v>
+      </c>
+      <c r="Q21">
+        <v>2.333960981912</v>
+      </c>
+      <c r="R21">
+        <v>21.005648837208</v>
+      </c>
+      <c r="S21">
+        <v>0.007308924356093155</v>
+      </c>
+      <c r="T21">
+        <v>0.007308924356093153</v>
       </c>
     </row>
   </sheetData>
